--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,253 +40,280 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>fear</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>nice</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -644,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9130434782608695</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8947368421052632</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -863,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8287671232876712</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.9007832898172323</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7567567567567568</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7352941176470589</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8802816901408451</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1263,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.8773584905660378</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6084656084656085</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C15">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5932203389830508</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.8658536585365854</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5174418604651163</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C18">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D18">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8636363636363636</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.8625</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L19">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1590,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.8604651162790697</v>
+        <v>0.859375</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.475</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.8461538461538461</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.8297872340425532</v>
+        <v>0.8375</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1740,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.8275862068965517</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,37 +1790,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3090909090909091</v>
+        <v>0.46875</v>
       </c>
       <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>17</v>
       </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>38</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.8214285714285714</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1840,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2933333333333333</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,38 +1890,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2147651006711409</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
+      </c>
+      <c r="L26">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>32</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>117</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1905,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,28 +1940,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005806451612903226</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3082</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <v>0.7894736842105263</v>
@@ -1959,17 +1986,41 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.2483221476510067</v>
+      </c>
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>112</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1985,17 +2036,41 @@
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.09126984126984126</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>229</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2007,21 +2082,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.006451612903225806</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0.26</v>
+      </c>
+      <c r="F30">
+        <v>0.74</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3080</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2033,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.7727272727272727</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2059,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2085,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.7708333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2111,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2137,44 +2236,44 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.7368421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>14</v>
-      </c>
-      <c r="M35">
-        <v>14</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.7186440677966102</v>
+        <v>0.717687074829932</v>
       </c>
       <c r="L36">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M36">
         <v>212</v>
@@ -2186,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>83</v>
@@ -2194,42 +2293,42 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.7154811715481172</v>
+      </c>
+      <c r="L37">
+        <v>171</v>
+      </c>
+      <c r="M37">
+        <v>171</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>68</v>
-      </c>
-      <c r="K37">
-        <v>0.7147058823529412</v>
-      </c>
-      <c r="L37">
-        <v>243</v>
-      </c>
-      <c r="M37">
-        <v>243</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2241,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.698744769874477</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2267,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.6966292134831461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2293,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.6808510638297872</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L41">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2319,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.6785714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2345,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2371,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2397,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2423,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K46">
-        <v>0.6428571428571429</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2449,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>0.5846153846153846</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2475,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>0.5757575757575758</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2501,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2527,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.5483870967741935</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2553,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.5476190476190477</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2579,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.5256410256410257</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2605,21 +2704,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.5185185185185185</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2631,21 +2730,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.5111111111111111</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2657,21 +2756,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.4901960784313725</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2683,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.4794520547945205</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2709,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.4411764705882353</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2735,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.3050847457627119</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2761,33 +2860,189 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.203125</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L59">
+        <v>36</v>
+      </c>
+      <c r="M59">
+        <v>36</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>0.40625</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L62">
         <v>13</v>
       </c>
-      <c r="M59">
+      <c r="M62">
         <v>13</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>51</v>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>16</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>19</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65">
+        <v>0.1192660550458716</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
